--- a/docs/datasets/excel/2526-1.xlsx
+++ b/docs/datasets/excel/2526-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan\Documents\IFLAB Stuff\data-praktikum-iflab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A858DE-1289-4E79-B56C-9708A267C829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B2CD90-88A4-4C7D-9D7E-CC259FA12A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2327,7 +2327,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
   </cols>
